--- a/ExcelToolsApp/bin/Debug/net7.0/rotate.xlsx
+++ b/ExcelToolsApp/bin/Debug/net7.0/rotate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExcelToolsGit\ExcelToolsApp\bin\Debug\net7.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC1C0E-A3D5-444A-AA76-1AE0E71BEB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B70ABF-0DFE-436F-9963-4F4D23FB3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,63 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>First Name</t>
+    <t>Col1</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Dulce</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Mara</t>
-  </si>
-  <si>
-    <t>Hashimoto</t>
-  </si>
-  <si>
-    <t>Great Britain</t>
-  </si>
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Kathleen</t>
-  </si>
-  <si>
-    <t>Hanner</t>
-  </si>
-  <si>
-    <t>Nereida</t>
-  </si>
-  <si>
-    <t>Gaston</t>
-  </si>
-  <si>
-    <t>Brumm</t>
+    <t>Col2</t>
   </si>
 </sst>
 </file>
@@ -86,11 +35,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -110,16 +67,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -127,22 +99,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{7011A082-A6EC-4DEB-B3B6-38595A001536}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L97"/>
+  <dimension ref="B1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F8"/>
+      <selection activeCell="B11" sqref="B11:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -465,146 +515,77 @@
     <col min="1" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="12" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C12" s="6">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6">
+        <v>47</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>61</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -614,20 +595,20 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I24" s="2"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I31" s="2"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
@@ -723,8 +704,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
